--- a/Excel/SCIC0002 - Enter Table CUID.xlsx
+++ b/Excel/SCIC0002 - Enter Table CUID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\ICONS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2365F625-5030-4C1A-9508-51B74C8C3C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF35F072-56D4-4C39-8CE3-460BD835B3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{5E7B8BF1-A296-4B05-868D-4DC65ED38144}"/>
+    <workbookView xWindow="3990" yWindow="3645" windowWidth="15375" windowHeight="7875" xr2:uid="{5E7B8BF1-A296-4B05-868D-4DC65ED38144}"/>
   </bookViews>
   <sheets>
     <sheet name="sheetname" sheetId="1" r:id="rId1"/>
@@ -549,11 +549,11 @@
         <v>9</v>
       </c>
       <c r="G2" s="1">
-        <v>10000694118</v>
+        <v>10000700961</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>"select * from cuid where cust_no like '%"&amp; LEFT(G2,LEN(G2)-1)&amp;"';"</f>
-        <v>select * from cuid where cust_no like '%1000069411';</v>
+        <v>select * from cuid where cust_no like '%1000070096';</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
